--- a/results/MASHURI HASAN.xlsx
+++ b/results/MASHURI HASAN.xlsx
@@ -67,40 +67,40 @@
     <t>SALES</t>
   </si>
   <si>
+    <t>ARTHA MEDICAL CENTER</t>
+  </si>
+  <si>
+    <t>BUSMIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>D-VIT FLASH TABLET</t>
+  </si>
+  <si>
+    <t>DUMHIL (METRO) AP</t>
+  </si>
+  <si>
+    <t>CALNIC 30 PLUS KAPLET</t>
+  </si>
+  <si>
     <t>APOTEK 22 FARMA</t>
   </si>
   <si>
-    <t>BUSMIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>APT CIKO</t>
   </si>
   <si>
     <t>CALNIC 100 ML SUSPENSI</t>
   </si>
   <si>
-    <t>ARTHA MEDICAL CENTER</t>
-  </si>
-  <si>
-    <t>D-VIT FLASH TABLET</t>
-  </si>
-  <si>
-    <t>DUMHIL (METRO) AP</t>
-  </si>
-  <si>
-    <t>CALNIC 30 PLUS KAPLET</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
     <t>SALES PANEL / TENDER</t>
   </si>
   <si>
-    <t xml:space="preserve">APT POLYGON FARMA </t>
+    <t>APT POLYGON FARMA</t>
   </si>
   <si>
     <t>APT. NAISYA</t>
@@ -806,10 +806,10 @@
         <v>165000</v>
       </c>
       <c r="G12" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H12" s="11">
-        <v>330000</v>
+        <v>825000</v>
       </c>
       <c r="I12" s="10"/>
     </row>
@@ -819,73 +819,73 @@
         <v>19</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F13" s="12">
-        <v>165000</v>
+        <v>75000</v>
       </c>
       <c r="G13" s="12">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="H13" s="12">
-        <v>330000</v>
+        <v>3000000</v>
       </c>
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="3:9">
       <c r="C14" s="8"/>
       <c r="D14" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F14" s="11">
-        <v>55000</v>
+        <v>165000</v>
       </c>
       <c r="G14" s="11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H14" s="11">
-        <v>165000</v>
+        <v>1650000</v>
       </c>
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="8"/>
       <c r="D15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>18</v>
-      </c>
       <c r="F15" s="12">
-        <v>165000</v>
+        <v>138000</v>
       </c>
       <c r="G15" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H15" s="12">
-        <v>825000</v>
+        <v>138000</v>
       </c>
       <c r="I15" s="10"/>
     </row>
     <row r="16" spans="3:9">
       <c r="C16" s="8"/>
       <c r="D16" s="11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F16" s="11">
-        <v>75000</v>
+        <v>165000</v>
       </c>
       <c r="G16" s="11">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="H16" s="11">
-        <v>3000000</v>
+        <v>330000</v>
       </c>
       <c r="I16" s="10"/>
     </row>
@@ -901,10 +901,10 @@
         <v>165000</v>
       </c>
       <c r="G17" s="12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H17" s="12">
-        <v>1650000</v>
+        <v>330000</v>
       </c>
       <c r="I17" s="10"/>
     </row>
@@ -917,13 +917,13 @@
         <v>25</v>
       </c>
       <c r="F18" s="11">
-        <v>138000</v>
+        <v>55000</v>
       </c>
       <c r="G18" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18" s="11">
-        <v>138000</v>
+        <v>165000</v>
       </c>
       <c r="I18" s="10"/>
     </row>
